--- a/xp tables.xlsx
+++ b/xp tables.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
   <si>
     <t>Levels</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>gains a slight halo of light perm</t>
+  </si>
+  <si>
+    <t>.1 melee dmg increase</t>
   </si>
 </sst>
 </file>
@@ -710,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -764,7 +767,9 @@
       <c r="B3" s="5">
         <v>500</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -851,7 +856,9 @@
       <c r="B8" s="5">
         <v>3500</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
         <v>90</v>
@@ -923,7 +930,9 @@
       <c r="B12" s="5">
         <v>8500</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="F12" s="4" t="s">
         <v>73</v>
@@ -967,7 +976,9 @@
       <c r="B15" s="5">
         <v>15000</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
         <v>61</v>
@@ -1016,7 +1027,9 @@
       <c r="B18" s="5">
         <v>30000</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
